--- a/Files/college_info/all_colleges/SRHP/SRHP_placements.xlsx
+++ b/Files/college_info/all_colleges/SRHP/SRHP_placements.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\SRHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67E5F11D-8314-4F57-90E5-18F46DCCE7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C5DEA-CD51-4275-8493-D80920E24BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FC8CF4AA-A6E4-46FE-9D57-7B0CB9FFBC6D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Sl.NO</t>
   </si>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>Keka</t>
+  </si>
+  <si>
+    <t>Amazon-2</t>
+  </si>
+  <si>
+    <t>Amazon-3</t>
+  </si>
+  <si>
+    <t>Accenture-2</t>
+  </si>
+  <si>
+    <t>IBM-2</t>
+  </si>
+  <si>
+    <t>IBM-3</t>
+  </si>
+  <si>
+    <t>Cognizant-2</t>
+  </si>
+  <si>
+    <t>Tech Mahindra-2</t>
+  </si>
+  <si>
+    <t>Cognizant-3</t>
   </si>
 </sst>
 </file>
@@ -238,7 +262,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -551,7 +586,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -606,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1">
         <v>17.350000000000001</v>
@@ -718,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>6.5</v>
@@ -900,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
         <v>4.5</v>
@@ -942,7 +977,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1">
         <v>4.5</v>
@@ -970,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C30" s="1">
         <v>4.25</v>
@@ -984,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1">
         <v>4.0999999999999996</v>
@@ -998,7 +1033,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1">
         <v>4</v>
@@ -1293,6 +1328,9 @@
       <sortCondition descending="1" ref="C1:C52"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>